--- a/Test Data/HCM Employee Self Service/HCM_SubmitExitInterviewQuestionnaire_0128.xlsx
+++ b/Test Data/HCM Employee Self Service/HCM_SubmitExitInterviewQuestionnaire_0128.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OracleATS\OFT\Maaden\Test Data\HCM Employee Self Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E289A98-FADF-4C28-BE2D-6596E7B6F9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947290A-2044-4067-B914-CE18A1DFD58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDE52EBF-C34A-44E8-A19F-627BCDE4ABAD}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>PWD</t>
   </si>
   <si>
-    <t>Sujit.swain</t>
-  </si>
-  <si>
     <t>Welcome123</t>
   </si>
   <si>
-    <t>https://ejop-test.login.em2.oraclecloud.com</t>
+    <t>https://fa-epod-dev1-saasfaprod1.fa.ocs.oraclecloud.com</t>
+  </si>
+  <si>
+    <t>khanmma@dev1.maaden.com.sa</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,13 +432,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
